--- a/biology/Histoire de la zoologie et de la botanique/Alireza_Zamani/Alireza_Zamani.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Alireza_Zamani/Alireza_Zamani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alireza Zamani est un arachnologiste iranien né le 11 janvier 1994 à Téhéran.
-C'est un spécialiste des araignées d'Iran[1],[2].
+C'est un spécialiste des araignées d'Iran,.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Taxon nommés en son honneur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Anthocharis gruneri zamanii Naderi &amp; Back, 2019
 Tegenaria zamanii Marusik &amp; Omelko, 2014</t>
@@ -543,7 +557,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sous-famille
 Scyloxinae Zamani, Magalhaes &amp; Rheims, 2022 (Scytodidae)
@@ -747,7 +763,9 @@
           <t>Principales publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Zamani, A., Mirshamsi, O., &amp; Marusik, Y. M. (2020). ‘Burning Violin’: The Medically Important Spider Genus Loxosceles (Araneae: Sicariidae) in Iran, Turkmenistan, and Afghanistan, With Two New Species. Journal of Medical Entomology. Abstract
 Zamani, A. (2016): The Field Guide of Spiders and Scorpions of Iran. Iranshenasi, 360 pp. [en persan] Site de l'éditeur
